--- a/Master_GeneralLedger.xlsx
+++ b/Master_GeneralLedger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Salve1\agent1-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D71A9-B9FF-4599-96EF-DC8DE4D24BDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90290FCE-8EF0-4B11-9E1B-7467EEFF35CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="831" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -735,6 +735,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="46">
@@ -17003,27 +17004,27 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="33.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.85546875" style="5" collapsed="1"/>
+    <col min="1" max="1" width="17.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.54296875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.81640625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.7265625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.1796875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="33.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.81640625" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="5" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.81640625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17076,27 +17077,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.42578125" style="6" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.7265625" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1796875" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.54296875" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.81640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.453125" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.453125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.1796875" style="6" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.26953125" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.54296875" style="6" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.54296875" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.453125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7265625" style="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.54296875" style="6" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.453125" style="6" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.81640625" style="6" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="12" style="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="13">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -17159,32 +17160,32 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.1796875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.7265625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7265625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="36" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="20.7109375" style="5" collapsed="1"/>
+    <col min="15" max="15" width="36.1796875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.7265625" style="5" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="20.7265625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="13">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
@@ -17245,7 +17246,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -17292,7 +17293,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -17339,7 +17340,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -17386,7 +17387,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
@@ -17433,7 +17434,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -17480,7 +17481,7 @@
         <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -17527,7 +17528,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -17574,7 +17575,7 @@
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -17621,7 +17622,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -17668,7 +17669,7 @@
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -17715,7 +17716,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -17762,7 +17763,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -17809,7 +17810,7 @@
         <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>

--- a/Master_GeneralLedger.xlsx
+++ b/Master_GeneralLedger.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Salve1\agent1-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbhiramaManoharNitta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90290FCE-8EF0-4B11-9E1B-7467EEFF35CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2325C5C-4E2F-4FCA-9293-09753FDC58C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17246,7 +17246,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -17293,7 +17293,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -17340,7 +17340,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -17387,7 +17387,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
@@ -17434,7 +17434,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -17481,7 +17481,7 @@
         <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -17528,7 +17528,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -17575,7 +17575,7 @@
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -17622,7 +17622,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -17669,7 +17669,7 @@
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -17716,7 +17716,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -17763,7 +17763,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -17810,7 +17810,7 @@
         <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>

--- a/Master_GeneralLedger.xlsx
+++ b/Master_GeneralLedger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbhiramaManoharNitta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2325C5C-4E2F-4FCA-9293-09753FDC58C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D71A9-B9FF-4599-96EF-DC8DE4D24BDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="831" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,6 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="46">
@@ -17004,27 +17003,27 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.54296875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.81640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7265625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.1796875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="33.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.81640625" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.81640625" style="5" collapsed="1"/>
+    <col min="1" max="1" width="17.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="33.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.85546875" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="13">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17077,27 +17076,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1796875" style="6" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.54296875" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.81640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.453125" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.453125" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.1796875" style="6" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.26953125" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.54296875" style="6" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.54296875" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.453125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7265625" style="6" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.54296875" style="6" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.453125" style="6" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.81640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.85546875" style="6" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="12" style="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -17160,32 +17159,32 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.1796875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.7265625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7265625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.81640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.26953125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.453125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="36" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.1796875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.7265625" style="5" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="20.7265625" style="5" collapsed="1"/>
+    <col min="15" max="15" width="36.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="20.7109375" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
